--- a/Code/Results/Cases/Case_5_124/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_124/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9813768726311645</v>
+        <v>1.035143382025501</v>
       </c>
       <c r="D2">
-        <v>1.003828651668715</v>
+        <v>1.03813277289284</v>
       </c>
       <c r="E2">
-        <v>0.987918520118261</v>
+        <v>1.033982385555172</v>
       </c>
       <c r="F2">
-        <v>0.9918171986185887</v>
+        <v>1.043601681888112</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038172872586141</v>
+        <v>1.035898460803204</v>
       </c>
       <c r="J2">
-        <v>1.004129233186833</v>
+        <v>1.040258767711315</v>
       </c>
       <c r="K2">
-        <v>1.015234903756653</v>
+        <v>1.040921676020302</v>
       </c>
       <c r="L2">
-        <v>0.9995487753020749</v>
+        <v>1.036783169240925</v>
       </c>
       <c r="M2">
-        <v>1.003391722416734</v>
+        <v>1.046375086769898</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9911134112553662</v>
+        <v>1.036899391494863</v>
       </c>
       <c r="D3">
-        <v>1.011402121976021</v>
+        <v>1.039492005783241</v>
       </c>
       <c r="E3">
-        <v>0.9963527889294298</v>
+        <v>1.035522176796945</v>
       </c>
       <c r="F3">
-        <v>1.001583080400451</v>
+        <v>1.045435936546052</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041804045785621</v>
+        <v>1.036417757860137</v>
       </c>
       <c r="J3">
-        <v>1.011849300555449</v>
+        <v>1.041654133013538</v>
       </c>
       <c r="K3">
-        <v>1.021891159989935</v>
+        <v>1.042089408047707</v>
       </c>
       <c r="L3">
-        <v>1.007032550197165</v>
+        <v>1.038130106514442</v>
       </c>
       <c r="M3">
-        <v>1.012195745412872</v>
+        <v>1.048017737731556</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9971602011783043</v>
+        <v>1.038031744876469</v>
       </c>
       <c r="D4">
-        <v>1.016108499905863</v>
+        <v>1.040368104538689</v>
       </c>
       <c r="E4">
-        <v>1.001591635745979</v>
+        <v>1.036514585823094</v>
       </c>
       <c r="F4">
-        <v>1.007656664757671</v>
+        <v>1.046619424254099</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044042374688356</v>
+        <v>1.036750536247008</v>
       </c>
       <c r="J4">
-        <v>1.016636829316832</v>
+        <v>1.042552890941932</v>
       </c>
       <c r="K4">
-        <v>1.026016320564198</v>
+        <v>1.04284107270681</v>
       </c>
       <c r="L4">
-        <v>1.011670889009829</v>
+        <v>1.038997249882364</v>
       </c>
       <c r="M4">
-        <v>1.01766355064497</v>
+        <v>1.049076826862691</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9996461495285924</v>
+        <v>1.038506870827355</v>
       </c>
       <c r="D5">
-        <v>1.018043907362719</v>
+        <v>1.040735612094549</v>
       </c>
       <c r="E5">
-        <v>1.003745502492168</v>
+        <v>1.036930868047742</v>
       </c>
       <c r="F5">
-        <v>1.010155611571037</v>
+        <v>1.047116167797698</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044958483329811</v>
+        <v>1.036889666701384</v>
       </c>
       <c r="J5">
-        <v>1.018603322137436</v>
+        <v>1.042929753695051</v>
       </c>
       <c r="K5">
-        <v>1.027710062946709</v>
+        <v>1.043156142837921</v>
       </c>
       <c r="L5">
-        <v>1.013575460652543</v>
+        <v>1.039360755311228</v>
       </c>
       <c r="M5">
-        <v>1.019911427611557</v>
+        <v>1.049521171726078</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00006038225882</v>
+        <v>1.038586593426847</v>
       </c>
       <c r="D6">
-        <v>1.018366429823473</v>
+        <v>1.040797271448431</v>
       </c>
       <c r="E6">
-        <v>1.004104402034757</v>
+        <v>1.037000709807371</v>
       </c>
       <c r="F6">
-        <v>1.010572124906362</v>
+        <v>1.047199527163983</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045110889995613</v>
+        <v>1.036912982374283</v>
       </c>
       <c r="J6">
-        <v>1.018930892961742</v>
+        <v>1.042992973870697</v>
       </c>
       <c r="K6">
-        <v>1.027992158790046</v>
+        <v>1.043208990345303</v>
       </c>
       <c r="L6">
-        <v>1.013892679071492</v>
+        <v>1.039421728832574</v>
       </c>
       <c r="M6">
-        <v>1.020285986196452</v>
+        <v>1.049595727129628</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9971936334605518</v>
+        <v>1.038038097104102</v>
       </c>
       <c r="D7">
-        <v>1.016134526368745</v>
+        <v>1.040373018334958</v>
       </c>
       <c r="E7">
-        <v>1.001620601861526</v>
+        <v>1.03652015182481</v>
       </c>
       <c r="F7">
-        <v>1.007690264076834</v>
+        <v>1.046626064862762</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044054711388501</v>
+        <v>1.036752398330054</v>
       </c>
       <c r="J7">
-        <v>1.016663282743772</v>
+        <v>1.042557930411112</v>
       </c>
       <c r="K7">
-        <v>1.026039107685187</v>
+        <v>1.042845286325191</v>
       </c>
       <c r="L7">
-        <v>1.011696512015518</v>
+        <v>1.039002111131766</v>
       </c>
       <c r="M7">
-        <v>1.01769378147588</v>
+        <v>1.049082767718428</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9847227651237132</v>
+        <v>1.035737652975054</v>
       </c>
       <c r="D8">
-        <v>1.006430478751081</v>
+        <v>1.038592847383409</v>
       </c>
       <c r="E8">
-        <v>0.9908166448678427</v>
+        <v>1.034503590730967</v>
       </c>
       <c r="F8">
-        <v>0.9951713036376042</v>
+        <v>1.044222291686268</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039424212822745</v>
+        <v>1.036074634761056</v>
       </c>
       <c r="J8">
-        <v>1.006783603640754</v>
+        <v>1.040731203718724</v>
       </c>
       <c r="K8">
-        <v>1.01752404400287</v>
+        <v>1.041317139139896</v>
       </c>
       <c r="L8">
-        <v>1.002122464426898</v>
+        <v>1.037239296460396</v>
       </c>
       <c r="M8">
-        <v>1.006417082416438</v>
+        <v>1.04693102893703</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9605680355864067</v>
+        <v>1.031653242701107</v>
       </c>
       <c r="D9">
-        <v>0.9876691553036172</v>
+        <v>1.035429192271198</v>
       </c>
       <c r="E9">
-        <v>0.9699040125953111</v>
+        <v>1.030919242870372</v>
       </c>
       <c r="F9">
-        <v>0.9709989126407977</v>
+        <v>1.039959668018876</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030320279480425</v>
+        <v>1.0348552105366</v>
       </c>
       <c r="J9">
-        <v>0.9875944286546271</v>
+        <v>1.037479906027776</v>
       </c>
       <c r="K9">
-        <v>1.000965510982601</v>
+        <v>1.038593633222114</v>
       </c>
       <c r="L9">
-        <v>0.983505008751182</v>
+        <v>1.034098484299864</v>
       </c>
       <c r="M9">
-        <v>0.9845807156432266</v>
+        <v>1.04310938272528</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.942595630744921</v>
+        <v>1.028908446275615</v>
       </c>
       <c r="D10">
-        <v>0.9737502208052978</v>
+        <v>1.033301239726247</v>
       </c>
       <c r="E10">
-        <v>0.9543647147827127</v>
+        <v>1.028507851288905</v>
       </c>
       <c r="F10">
-        <v>0.9530725579955328</v>
+        <v>1.037098664444674</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023460630071605</v>
+        <v>1.034024961030668</v>
       </c>
       <c r="J10">
-        <v>0.9732876448134008</v>
+        <v>1.035289638786459</v>
       </c>
       <c r="K10">
-        <v>0.9886101682336457</v>
+        <v>1.036756508445603</v>
       </c>
       <c r="L10">
-        <v>0.9696098914864318</v>
+        <v>1.031980433748075</v>
       </c>
       <c r="M10">
-        <v>0.968344147330256</v>
+        <v>1.040540342207647</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9342523385004106</v>
+        <v>1.027714467743331</v>
       </c>
       <c r="D11">
-        <v>0.9673030574649244</v>
+        <v>1.032375150395715</v>
       </c>
       <c r="E11">
-        <v>0.9471592483328514</v>
+        <v>1.027458280989575</v>
       </c>
       <c r="F11">
-        <v>0.9447667776628401</v>
+        <v>1.035854984633391</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020257773013646</v>
+        <v>1.033661257734151</v>
       </c>
       <c r="J11">
-        <v>0.966641344212083</v>
+        <v>1.034335618579828</v>
       </c>
       <c r="K11">
-        <v>0.9828691049239706</v>
+        <v>1.035955744095018</v>
       </c>
       <c r="L11">
-        <v>0.9631515466959771</v>
+        <v>1.03105734166909</v>
       </c>
       <c r="M11">
-        <v>0.9608113069586518</v>
+        <v>1.039422625868098</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9310561551809057</v>
+        <v>1.027270126935031</v>
       </c>
       <c r="D12">
-        <v>0.9648359116648936</v>
+        <v>1.032030441038021</v>
       </c>
       <c r="E12">
-        <v>0.9444005557777717</v>
+        <v>1.027067588962826</v>
       </c>
       <c r="F12">
-        <v>0.9415876013296206</v>
+        <v>1.03539227533561</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019028255364166</v>
+        <v>1.033525523069557</v>
       </c>
       <c r="J12">
-        <v>0.964094784061942</v>
+        <v>1.033980389742597</v>
       </c>
       <c r="K12">
-        <v>0.9806692991001583</v>
+        <v>1.035657496034356</v>
       </c>
       <c r="L12">
-        <v>0.9606765329326959</v>
+        <v>1.030713549438907</v>
       </c>
       <c r="M12">
-        <v>0.9579265069082427</v>
+        <v>1.039006637836862</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.931746379564494</v>
+        <v>1.027365478115905</v>
       </c>
       <c r="D13">
-        <v>0.9653685696064317</v>
+        <v>1.032104415151007</v>
       </c>
       <c r="E13">
-        <v>0.9449962238740165</v>
+        <v>1.027151431838194</v>
       </c>
       <c r="F13">
-        <v>0.942274030401996</v>
+        <v>1.035491562420556</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019293884182646</v>
+        <v>1.033554667666212</v>
       </c>
       <c r="J13">
-        <v>0.9646447372972845</v>
+        <v>1.034056626904434</v>
       </c>
       <c r="K13">
-        <v>0.981144369747134</v>
+        <v>1.035721508097531</v>
       </c>
       <c r="L13">
-        <v>0.9612110557467602</v>
+        <v>1.030787335740193</v>
       </c>
       <c r="M13">
-        <v>0.9585494422212975</v>
+        <v>1.039095906063794</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9339902065567036</v>
+        <v>1.027677755746472</v>
       </c>
       <c r="D14">
-        <v>0.9671006599279477</v>
+        <v>1.032346671367995</v>
       </c>
       <c r="E14">
-        <v>0.9469329619885639</v>
+        <v>1.027426003414685</v>
       </c>
       <c r="F14">
-        <v>0.9445059859222559</v>
+        <v>1.0358167523985</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02015698549647</v>
+        <v>1.033650050948459</v>
       </c>
       <c r="J14">
-        <v>0.9664324984025957</v>
+        <v>1.034306272973776</v>
       </c>
       <c r="K14">
-        <v>0.9826886979376767</v>
+        <v>1.035931107402533</v>
       </c>
       <c r="L14">
-        <v>0.9629485777920649</v>
+        <v>1.031028942467032</v>
       </c>
       <c r="M14">
-        <v>0.9605746930068401</v>
+        <v>1.039388256988105</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9353594015959272</v>
+        <v>1.027870047761474</v>
       </c>
       <c r="D15">
-        <v>0.9681579547179282</v>
+        <v>1.032495837702086</v>
       </c>
       <c r="E15">
-        <v>0.9481149918608212</v>
+        <v>1.02759506478206</v>
       </c>
       <c r="F15">
-        <v>0.9458682886496035</v>
+        <v>1.03601701243253</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020683327523775</v>
+        <v>1.033708734809938</v>
       </c>
       <c r="J15">
-        <v>0.9675233463495438</v>
+        <v>1.034459973196712</v>
       </c>
       <c r="K15">
-        <v>0.9836310005873189</v>
+        <v>1.036060140841227</v>
       </c>
       <c r="L15">
-        <v>0.9640087105298591</v>
+        <v>1.031177682562597</v>
       </c>
       <c r="M15">
-        <v>0.9618106380646533</v>
+        <v>1.039568274947282</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9431364951314773</v>
+        <v>1.028987569616031</v>
       </c>
       <c r="D16">
-        <v>0.9741685001914897</v>
+        <v>1.033362601378587</v>
       </c>
       <c r="E16">
-        <v>0.9548320164842476</v>
+        <v>1.028577391853307</v>
       </c>
       <c r="F16">
-        <v>0.953611337650932</v>
+        <v>1.037181099303228</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023667899199991</v>
+        <v>1.034049009647656</v>
       </c>
       <c r="J16">
-        <v>0.9737184222215003</v>
+        <v>1.035352833949889</v>
       </c>
       <c r="K16">
-        <v>0.9889822545353925</v>
+        <v>1.036809540019816</v>
       </c>
       <c r="L16">
-        <v>0.9700284211815245</v>
+        <v>1.032041569098322</v>
       </c>
       <c r="M16">
-        <v>0.9688325849425269</v>
+        <v>1.0406144077711</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9478564338558187</v>
+        <v>1.029687082532651</v>
       </c>
       <c r="D17">
-        <v>0.9778203320317076</v>
+        <v>1.033905036865194</v>
       </c>
       <c r="E17">
-        <v>0.9589109578848523</v>
+        <v>1.029192113836582</v>
       </c>
       <c r="F17">
-        <v>0.9583148995383307</v>
+        <v>1.037909986499785</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025474638391617</v>
+        <v>1.034261324983688</v>
       </c>
       <c r="J17">
-        <v>0.977477170514561</v>
+        <v>1.035911384000781</v>
       </c>
       <c r="K17">
-        <v>0.9922287579193466</v>
+        <v>1.037278194464189</v>
       </c>
       <c r="L17">
-        <v>0.9736799385196162</v>
+        <v>1.032581852728083</v>
       </c>
       <c r="M17">
-        <v>0.9730955491175156</v>
+        <v>1.041269183963483</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9505563509877565</v>
+        <v>1.030094571008382</v>
       </c>
       <c r="D18">
-        <v>0.9799105621671715</v>
+        <v>1.034220980679787</v>
       </c>
       <c r="E18">
-        <v>0.9612449517331801</v>
+        <v>1.02955014902686</v>
       </c>
       <c r="F18">
-        <v>0.9610069255492897</v>
+        <v>1.038334668041716</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026506417785999</v>
+        <v>1.034384760262101</v>
       </c>
       <c r="J18">
-        <v>0.9796268127861595</v>
+        <v>1.036236635833551</v>
       </c>
       <c r="K18">
-        <v>0.9940853162010818</v>
+        <v>1.037551044570246</v>
       </c>
       <c r="L18">
-        <v>0.9757679493297957</v>
+        <v>1.032896417055786</v>
       </c>
       <c r="M18">
-        <v>0.9755344783278743</v>
+        <v>1.041650593459926</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9514682837024262</v>
+        <v>1.030233425598498</v>
       </c>
       <c r="D19">
-        <v>0.9806167717640636</v>
+        <v>1.034328633591618</v>
       </c>
       <c r="E19">
-        <v>0.9620334056482469</v>
+        <v>1.029672141888438</v>
       </c>
       <c r="F19">
-        <v>0.9619164378825285</v>
+        <v>1.038479395121429</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026854617833264</v>
+        <v>1.034426780107138</v>
       </c>
       <c r="J19">
-        <v>0.9803528002035165</v>
+        <v>1.036347447114954</v>
       </c>
       <c r="K19">
-        <v>0.9947122971702086</v>
+        <v>1.037643993693671</v>
       </c>
       <c r="L19">
-        <v>0.9764730698459695</v>
+        <v>1.033003578577145</v>
       </c>
       <c r="M19">
-        <v>0.97635832323208</v>
+        <v>1.041780558316519</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9473556096320394</v>
+        <v>1.029612085946403</v>
       </c>
       <c r="D20">
-        <v>0.9774327045228421</v>
+        <v>1.033846885298143</v>
       </c>
       <c r="E20">
-        <v>0.9584780690920423</v>
+        <v>1.029126214098114</v>
       </c>
       <c r="F20">
-        <v>0.9578156577734639</v>
+        <v>1.037831832171824</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025283106243928</v>
+        <v>1.034238587472201</v>
       </c>
       <c r="J20">
-        <v>0.9770783819816661</v>
+        <v>1.035851512956866</v>
       </c>
       <c r="K20">
-        <v>0.9918843293531442</v>
+        <v>1.037227964946054</v>
       </c>
       <c r="L20">
-        <v>0.9732925584865176</v>
+        <v>1.032523944913236</v>
       </c>
       <c r="M20">
-        <v>0.9726431692899411</v>
+        <v>1.041198985620009</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9333322537068676</v>
+        <v>1.027585821254372</v>
       </c>
       <c r="D21">
-        <v>0.9665926853211113</v>
+        <v>1.032275352920486</v>
       </c>
       <c r="E21">
-        <v>0.9463650089435575</v>
+        <v>1.027345172140363</v>
       </c>
       <c r="F21">
-        <v>0.9438514400472554</v>
+        <v>1.035721012980361</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019903968048631</v>
+        <v>1.033621980656172</v>
       </c>
       <c r="J21">
-        <v>0.9659082874896341</v>
+        <v>1.034232782411808</v>
       </c>
       <c r="K21">
-        <v>0.9822358684786687</v>
+        <v>1.035869408077713</v>
       </c>
       <c r="L21">
-        <v>0.962439110702745</v>
+        <v>1.030957820712591</v>
       </c>
       <c r="M21">
-        <v>0.9599808059092674</v>
+        <v>1.039302189693357</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9239446787053238</v>
+        <v>1.026306933272757</v>
       </c>
       <c r="D22">
-        <v>0.959352117955687</v>
+        <v>1.031283102432816</v>
       </c>
       <c r="E22">
-        <v>0.9382659473594875</v>
+        <v>1.026220519720392</v>
       </c>
       <c r="F22">
-        <v>0.9345191330939306</v>
+        <v>1.034389499042844</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016288128508735</v>
+        <v>1.033230593940126</v>
       </c>
       <c r="J22">
-        <v>0.9584281570939878</v>
+        <v>1.033210018190491</v>
       </c>
       <c r="K22">
-        <v>0.9757742390299039</v>
+        <v>1.035010543635079</v>
       </c>
       <c r="L22">
-        <v>0.9551682747866651</v>
+        <v>1.029967834329487</v>
       </c>
       <c r="M22">
-        <v>0.9515098302743707</v>
+        <v>1.038104852879946</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.928980380938436</v>
+        <v>1.026985367794485</v>
       </c>
       <c r="D23">
-        <v>0.9632344353510875</v>
+        <v>1.031809513673017</v>
       </c>
       <c r="E23">
-        <v>0.9426094171262872</v>
+        <v>1.026817184939047</v>
       </c>
       <c r="F23">
-        <v>0.9395236465146561</v>
+        <v>1.035095780677984</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01822905010823</v>
+        <v>1.03343842904051</v>
       </c>
       <c r="J23">
-        <v>0.9624408125996121</v>
+        <v>1.033752685564648</v>
       </c>
       <c r="K23">
-        <v>0.9792405311321072</v>
+        <v>1.035466293382779</v>
       </c>
       <c r="L23">
-        <v>0.95906890156415</v>
+        <v>1.030493153806663</v>
       </c>
       <c r="M23">
-        <v>0.9560532501849165</v>
+        <v>1.038740040867493</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9475820738295763</v>
+        <v>1.029645975298942</v>
       </c>
       <c r="D24">
-        <v>0.9776079790900665</v>
+        <v>1.033873162877171</v>
       </c>
       <c r="E24">
-        <v>0.9586738117554294</v>
+        <v>1.029155992964969</v>
       </c>
       <c r="F24">
-        <v>0.9580414018240989</v>
+        <v>1.037867148187955</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025369719192969</v>
+        <v>1.034248862825131</v>
       </c>
       <c r="J24">
-        <v>0.9772587087971566</v>
+        <v>1.035878567775574</v>
       </c>
       <c r="K24">
-        <v>0.9920400757323899</v>
+        <v>1.037250663072848</v>
       </c>
       <c r="L24">
-        <v>0.9734677274857995</v>
+        <v>1.032550112735215</v>
       </c>
       <c r="M24">
-        <v>0.9728477264859442</v>
+        <v>1.04123070680629</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9671081209861593</v>
+        <v>1.03271292461277</v>
       </c>
       <c r="D25">
-        <v>0.9927434836090675</v>
+        <v>1.036250332009258</v>
       </c>
       <c r="E25">
-        <v>0.9755637100479811</v>
+        <v>1.031849652369432</v>
       </c>
       <c r="F25">
-        <v>0.9775344614441324</v>
+        <v>1.041064963985422</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032800129248395</v>
+        <v>1.035173479614525</v>
       </c>
       <c r="J25">
-        <v>0.9927954975335903</v>
+        <v>1.038324379774167</v>
       </c>
       <c r="K25">
-        <v>1.005455501902973</v>
+        <v>1.039301446699599</v>
       </c>
       <c r="L25">
-        <v>0.9885535951274058</v>
+        <v>1.03491464844589</v>
       </c>
       <c r="M25">
-        <v>0.9904918335802032</v>
+        <v>1.044101038395631</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_124/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_124/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035143382025501</v>
+        <v>0.981376872631164</v>
       </c>
       <c r="D2">
-        <v>1.03813277289284</v>
+        <v>1.003828651668714</v>
       </c>
       <c r="E2">
-        <v>1.033982385555172</v>
+        <v>0.9879185201182605</v>
       </c>
       <c r="F2">
-        <v>1.043601681888112</v>
+        <v>0.9918171986185879</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035898460803204</v>
+        <v>1.038172872586141</v>
       </c>
       <c r="J2">
-        <v>1.040258767711315</v>
+        <v>1.004129233186833</v>
       </c>
       <c r="K2">
-        <v>1.040921676020302</v>
+        <v>1.015234903756652</v>
       </c>
       <c r="L2">
-        <v>1.036783169240925</v>
+        <v>0.9995487753020744</v>
       </c>
       <c r="M2">
-        <v>1.046375086769898</v>
+        <v>1.003391722416733</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036899391494863</v>
+        <v>0.9911134112553643</v>
       </c>
       <c r="D3">
-        <v>1.039492005783241</v>
+        <v>1.01140212197602</v>
       </c>
       <c r="E3">
-        <v>1.035522176796945</v>
+        <v>0.9963527889294278</v>
       </c>
       <c r="F3">
-        <v>1.045435936546052</v>
+        <v>1.001583080400449</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036417757860137</v>
+        <v>1.04180404578562</v>
       </c>
       <c r="J3">
-        <v>1.041654133013538</v>
+        <v>1.011849300555447</v>
       </c>
       <c r="K3">
-        <v>1.042089408047707</v>
+        <v>1.021891159989933</v>
       </c>
       <c r="L3">
-        <v>1.038130106514442</v>
+        <v>1.007032550197164</v>
       </c>
       <c r="M3">
-        <v>1.048017737731556</v>
+        <v>1.01219574541287</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038031744876469</v>
+        <v>0.9971602011783067</v>
       </c>
       <c r="D4">
-        <v>1.040368104538689</v>
+        <v>1.016108499905865</v>
       </c>
       <c r="E4">
-        <v>1.036514585823094</v>
+        <v>1.001591635745981</v>
       </c>
       <c r="F4">
-        <v>1.046619424254099</v>
+        <v>1.007656664757673</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036750536247008</v>
+        <v>1.044042374688357</v>
       </c>
       <c r="J4">
-        <v>1.042552890941932</v>
+        <v>1.016636829316834</v>
       </c>
       <c r="K4">
-        <v>1.04284107270681</v>
+        <v>1.0260163205642</v>
       </c>
       <c r="L4">
-        <v>1.038997249882364</v>
+        <v>1.01167088900983</v>
       </c>
       <c r="M4">
-        <v>1.049076826862691</v>
+        <v>1.017663550644972</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038506870827355</v>
+        <v>0.9996461495285901</v>
       </c>
       <c r="D5">
-        <v>1.040735612094549</v>
+        <v>1.018043907362717</v>
       </c>
       <c r="E5">
-        <v>1.036930868047742</v>
+        <v>1.003745502492166</v>
       </c>
       <c r="F5">
-        <v>1.047116167797698</v>
+        <v>1.010155611571035</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036889666701384</v>
+        <v>1.04495848332981</v>
       </c>
       <c r="J5">
-        <v>1.042929753695051</v>
+        <v>1.018603322137433</v>
       </c>
       <c r="K5">
-        <v>1.043156142837921</v>
+        <v>1.027710062946707</v>
       </c>
       <c r="L5">
-        <v>1.039360755311228</v>
+        <v>1.013575460652541</v>
       </c>
       <c r="M5">
-        <v>1.049521171726078</v>
+        <v>1.019911427611556</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038586593426847</v>
+        <v>1.000060382258822</v>
       </c>
       <c r="D6">
-        <v>1.040797271448431</v>
+        <v>1.018366429823475</v>
       </c>
       <c r="E6">
-        <v>1.037000709807371</v>
+        <v>1.004104402034759</v>
       </c>
       <c r="F6">
-        <v>1.047199527163983</v>
+        <v>1.010572124906364</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036912982374283</v>
+        <v>1.045110889995613</v>
       </c>
       <c r="J6">
-        <v>1.042992973870697</v>
+        <v>1.018930892961744</v>
       </c>
       <c r="K6">
-        <v>1.043208990345303</v>
+        <v>1.027992158790048</v>
       </c>
       <c r="L6">
-        <v>1.039421728832574</v>
+        <v>1.013892679071494</v>
       </c>
       <c r="M6">
-        <v>1.049595727129628</v>
+        <v>1.020285986196454</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038038097104102</v>
+        <v>0.9971936334605511</v>
       </c>
       <c r="D7">
-        <v>1.040373018334958</v>
+        <v>1.016134526368745</v>
       </c>
       <c r="E7">
-        <v>1.03652015182481</v>
+        <v>1.001620601861526</v>
       </c>
       <c r="F7">
-        <v>1.046626064862762</v>
+        <v>1.007690264076833</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036752398330054</v>
+        <v>1.0440547113885</v>
       </c>
       <c r="J7">
-        <v>1.042557930411112</v>
+        <v>1.016663282743771</v>
       </c>
       <c r="K7">
-        <v>1.042845286325191</v>
+        <v>1.026039107685186</v>
       </c>
       <c r="L7">
-        <v>1.039002111131766</v>
+        <v>1.011696512015517</v>
       </c>
       <c r="M7">
-        <v>1.049082767718428</v>
+        <v>1.017693781475879</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035737652975054</v>
+        <v>0.9847227651237137</v>
       </c>
       <c r="D8">
-        <v>1.038592847383409</v>
+        <v>1.006430478751082</v>
       </c>
       <c r="E8">
-        <v>1.034503590730967</v>
+        <v>0.9908166448678433</v>
       </c>
       <c r="F8">
-        <v>1.044222291686268</v>
+        <v>0.9951713036376046</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036074634761056</v>
+        <v>1.039424212822746</v>
       </c>
       <c r="J8">
-        <v>1.040731203718724</v>
+        <v>1.006783603640755</v>
       </c>
       <c r="K8">
-        <v>1.041317139139896</v>
+        <v>1.017524044002871</v>
       </c>
       <c r="L8">
-        <v>1.037239296460396</v>
+        <v>1.002122464426898</v>
       </c>
       <c r="M8">
-        <v>1.04693102893703</v>
+        <v>1.006417082416438</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031653242701107</v>
+        <v>0.9605680355864078</v>
       </c>
       <c r="D9">
-        <v>1.035429192271198</v>
+        <v>0.987669155303618</v>
       </c>
       <c r="E9">
-        <v>1.030919242870372</v>
+        <v>0.9699040125953121</v>
       </c>
       <c r="F9">
-        <v>1.039959668018876</v>
+        <v>0.9709989126407985</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0348552105366</v>
+        <v>1.030320279480426</v>
       </c>
       <c r="J9">
-        <v>1.037479906027776</v>
+        <v>0.9875944286546282</v>
       </c>
       <c r="K9">
-        <v>1.038593633222114</v>
+        <v>1.000965510982601</v>
       </c>
       <c r="L9">
-        <v>1.034098484299864</v>
+        <v>0.9835050087511831</v>
       </c>
       <c r="M9">
-        <v>1.04310938272528</v>
+        <v>0.9845807156432271</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028908446275615</v>
+        <v>0.9425956307449218</v>
       </c>
       <c r="D10">
-        <v>1.033301239726247</v>
+        <v>0.9737502208052983</v>
       </c>
       <c r="E10">
-        <v>1.028507851288905</v>
+        <v>0.9543647147827131</v>
       </c>
       <c r="F10">
-        <v>1.037098664444674</v>
+        <v>0.9530725579955335</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034024961030668</v>
+        <v>1.023460630071605</v>
       </c>
       <c r="J10">
-        <v>1.035289638786459</v>
+        <v>0.9732876448134015</v>
       </c>
       <c r="K10">
-        <v>1.036756508445603</v>
+        <v>0.9886101682336459</v>
       </c>
       <c r="L10">
-        <v>1.031980433748075</v>
+        <v>0.9696098914864324</v>
       </c>
       <c r="M10">
-        <v>1.040540342207647</v>
+        <v>0.968344147330257</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027714467743331</v>
+        <v>0.9342523385004106</v>
       </c>
       <c r="D11">
-        <v>1.032375150395715</v>
+        <v>0.9673030574649241</v>
       </c>
       <c r="E11">
-        <v>1.027458280989575</v>
+        <v>0.9471592483328514</v>
       </c>
       <c r="F11">
-        <v>1.035854984633391</v>
+        <v>0.9447667776628398</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033661257734151</v>
+        <v>1.020257773013646</v>
       </c>
       <c r="J11">
-        <v>1.034335618579828</v>
+        <v>0.9666413442120833</v>
       </c>
       <c r="K11">
-        <v>1.035955744095018</v>
+        <v>0.9828691049239704</v>
       </c>
       <c r="L11">
-        <v>1.03105734166909</v>
+        <v>0.9631515466959771</v>
       </c>
       <c r="M11">
-        <v>1.039422625868098</v>
+        <v>0.9608113069586512</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027270126935031</v>
+        <v>0.931056155180906</v>
       </c>
       <c r="D12">
-        <v>1.032030441038021</v>
+        <v>0.9648359116648939</v>
       </c>
       <c r="E12">
-        <v>1.027067588962826</v>
+        <v>0.9444005557777722</v>
       </c>
       <c r="F12">
-        <v>1.03539227533561</v>
+        <v>0.9415876013296208</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033525523069557</v>
+        <v>1.019028255364167</v>
       </c>
       <c r="J12">
-        <v>1.033980389742597</v>
+        <v>0.9640947840619425</v>
       </c>
       <c r="K12">
-        <v>1.035657496034356</v>
+        <v>0.9806692991001589</v>
       </c>
       <c r="L12">
-        <v>1.030713549438907</v>
+        <v>0.9606765329326963</v>
       </c>
       <c r="M12">
-        <v>1.039006637836862</v>
+        <v>0.9579265069082428</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027365478115905</v>
+        <v>0.9317463795644936</v>
       </c>
       <c r="D13">
-        <v>1.032104415151007</v>
+        <v>0.9653685696064314</v>
       </c>
       <c r="E13">
-        <v>1.027151431838194</v>
+        <v>0.9449962238740163</v>
       </c>
       <c r="F13">
-        <v>1.035491562420556</v>
+        <v>0.9422740304019954</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033554667666212</v>
+        <v>1.019293884182646</v>
       </c>
       <c r="J13">
-        <v>1.034056626904434</v>
+        <v>0.9646447372972841</v>
       </c>
       <c r="K13">
-        <v>1.035721508097531</v>
+        <v>0.9811443697471336</v>
       </c>
       <c r="L13">
-        <v>1.030787335740193</v>
+        <v>0.9612110557467599</v>
       </c>
       <c r="M13">
-        <v>1.039095906063794</v>
+        <v>0.958549442221297</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027677755746472</v>
+        <v>0.9339902065567054</v>
       </c>
       <c r="D14">
-        <v>1.032346671367995</v>
+        <v>0.9671006599279492</v>
       </c>
       <c r="E14">
-        <v>1.027426003414685</v>
+        <v>0.9469329619885654</v>
       </c>
       <c r="F14">
-        <v>1.0358167523985</v>
+        <v>0.9445059859222575</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033650050948459</v>
+        <v>1.020156985496471</v>
       </c>
       <c r="J14">
-        <v>1.034306272973776</v>
+        <v>0.9664324984025974</v>
       </c>
       <c r="K14">
-        <v>1.035931107402533</v>
+        <v>0.9826886979376783</v>
       </c>
       <c r="L14">
-        <v>1.031028942467032</v>
+        <v>0.9629485777920666</v>
       </c>
       <c r="M14">
-        <v>1.039388256988105</v>
+        <v>0.9605746930068418</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027870047761474</v>
+        <v>0.9353594015959285</v>
       </c>
       <c r="D15">
-        <v>1.032495837702086</v>
+        <v>0.9681579547179293</v>
       </c>
       <c r="E15">
-        <v>1.02759506478206</v>
+        <v>0.9481149918608224</v>
       </c>
       <c r="F15">
-        <v>1.03601701243253</v>
+        <v>0.9458682886496048</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033708734809938</v>
+        <v>1.020683327523775</v>
       </c>
       <c r="J15">
-        <v>1.034459973196712</v>
+        <v>0.9675233463495452</v>
       </c>
       <c r="K15">
-        <v>1.036060140841227</v>
+        <v>0.98363100058732</v>
       </c>
       <c r="L15">
-        <v>1.031177682562597</v>
+        <v>0.9640087105298603</v>
       </c>
       <c r="M15">
-        <v>1.039568274947282</v>
+        <v>0.9618106380646546</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028987569616031</v>
+        <v>0.9431364951314756</v>
       </c>
       <c r="D16">
-        <v>1.033362601378587</v>
+        <v>0.9741685001914884</v>
       </c>
       <c r="E16">
-        <v>1.028577391853307</v>
+        <v>0.954832016484246</v>
       </c>
       <c r="F16">
-        <v>1.037181099303228</v>
+        <v>0.9536113376509306</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034049009647656</v>
+        <v>1.023667899199991</v>
       </c>
       <c r="J16">
-        <v>1.035352833949889</v>
+        <v>0.9737184222214984</v>
       </c>
       <c r="K16">
-        <v>1.036809540019816</v>
+        <v>0.9889822545353911</v>
       </c>
       <c r="L16">
-        <v>1.032041569098322</v>
+        <v>0.9700284211815228</v>
       </c>
       <c r="M16">
-        <v>1.0406144077711</v>
+        <v>0.9688325849425257</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029687082532651</v>
+        <v>0.9478564338558163</v>
       </c>
       <c r="D17">
-        <v>1.033905036865194</v>
+        <v>0.9778203320317057</v>
       </c>
       <c r="E17">
-        <v>1.029192113836582</v>
+        <v>0.9589109578848501</v>
       </c>
       <c r="F17">
-        <v>1.037909986499785</v>
+        <v>0.958314899538329</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034261324983688</v>
+        <v>1.025474638391616</v>
       </c>
       <c r="J17">
-        <v>1.035911384000781</v>
+        <v>0.9774771705145588</v>
       </c>
       <c r="K17">
-        <v>1.037278194464189</v>
+        <v>0.9922287579193448</v>
       </c>
       <c r="L17">
-        <v>1.032581852728083</v>
+        <v>0.973679938519614</v>
       </c>
       <c r="M17">
-        <v>1.041269183963483</v>
+        <v>0.9730955491175139</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030094571008382</v>
+        <v>0.9505563509877561</v>
       </c>
       <c r="D18">
-        <v>1.034220980679787</v>
+        <v>0.9799105621671713</v>
       </c>
       <c r="E18">
-        <v>1.02955014902686</v>
+        <v>0.9612449517331798</v>
       </c>
       <c r="F18">
-        <v>1.038334668041716</v>
+        <v>0.9610069255492892</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034384760262101</v>
+        <v>1.026506417785999</v>
       </c>
       <c r="J18">
-        <v>1.036236635833551</v>
+        <v>0.9796268127861594</v>
       </c>
       <c r="K18">
-        <v>1.037551044570246</v>
+        <v>0.9940853162010818</v>
       </c>
       <c r="L18">
-        <v>1.032896417055786</v>
+        <v>0.9757679493297955</v>
       </c>
       <c r="M18">
-        <v>1.041650593459926</v>
+        <v>0.9755344783278738</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030233425598498</v>
+        <v>0.9514682837024262</v>
       </c>
       <c r="D19">
-        <v>1.034328633591618</v>
+        <v>0.9806167717640639</v>
       </c>
       <c r="E19">
-        <v>1.029672141888438</v>
+        <v>0.9620334056482471</v>
       </c>
       <c r="F19">
-        <v>1.038479395121429</v>
+        <v>0.9619164378825283</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034426780107138</v>
+        <v>1.026854617833264</v>
       </c>
       <c r="J19">
-        <v>1.036347447114954</v>
+        <v>0.9803528002035167</v>
       </c>
       <c r="K19">
-        <v>1.037643993693671</v>
+        <v>0.9947122971702089</v>
       </c>
       <c r="L19">
-        <v>1.033003578577145</v>
+        <v>0.9764730698459695</v>
       </c>
       <c r="M19">
-        <v>1.041780558316519</v>
+        <v>0.97635832323208</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029612085946403</v>
+        <v>0.9473556096320387</v>
       </c>
       <c r="D20">
-        <v>1.033846885298143</v>
+        <v>0.9774327045228418</v>
       </c>
       <c r="E20">
-        <v>1.029126214098114</v>
+        <v>0.9584780690920416</v>
       </c>
       <c r="F20">
-        <v>1.037831832171824</v>
+        <v>0.9578156577734633</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034238587472201</v>
+        <v>1.025283106243928</v>
       </c>
       <c r="J20">
-        <v>1.035851512956866</v>
+        <v>0.9770783819816659</v>
       </c>
       <c r="K20">
-        <v>1.037227964946054</v>
+        <v>0.9918843293531437</v>
       </c>
       <c r="L20">
-        <v>1.032523944913236</v>
+        <v>0.9732925584865169</v>
       </c>
       <c r="M20">
-        <v>1.041198985620009</v>
+        <v>0.9726431692899407</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027585821254372</v>
+        <v>0.9333322537068675</v>
       </c>
       <c r="D21">
-        <v>1.032275352920486</v>
+        <v>0.9665926853211112</v>
       </c>
       <c r="E21">
-        <v>1.027345172140363</v>
+        <v>0.9463650089435577</v>
       </c>
       <c r="F21">
-        <v>1.035721012980361</v>
+        <v>0.9438514400472557</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033621980656172</v>
+        <v>1.019903968048632</v>
       </c>
       <c r="J21">
-        <v>1.034232782411808</v>
+        <v>0.9659082874896341</v>
       </c>
       <c r="K21">
-        <v>1.035869408077713</v>
+        <v>0.9822358684786687</v>
       </c>
       <c r="L21">
-        <v>1.030957820712591</v>
+        <v>0.962439110702745</v>
       </c>
       <c r="M21">
-        <v>1.039302189693357</v>
+        <v>0.9599808059092677</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026306933272757</v>
+        <v>0.9239446787053232</v>
       </c>
       <c r="D22">
-        <v>1.031283102432816</v>
+        <v>0.9593521179556863</v>
       </c>
       <c r="E22">
-        <v>1.026220519720392</v>
+        <v>0.938265947359487</v>
       </c>
       <c r="F22">
-        <v>1.034389499042844</v>
+        <v>0.9345191330939304</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033230593940126</v>
+        <v>1.016288128508735</v>
       </c>
       <c r="J22">
-        <v>1.033210018190491</v>
+        <v>0.9584281570939871</v>
       </c>
       <c r="K22">
-        <v>1.035010543635079</v>
+        <v>0.9757742390299032</v>
       </c>
       <c r="L22">
-        <v>1.029967834329487</v>
+        <v>0.9551682747866646</v>
       </c>
       <c r="M22">
-        <v>1.038104852879946</v>
+        <v>0.9515098302743704</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026985367794485</v>
+        <v>0.9289803809384366</v>
       </c>
       <c r="D23">
-        <v>1.031809513673017</v>
+        <v>0.9632344353510883</v>
       </c>
       <c r="E23">
-        <v>1.026817184939047</v>
+        <v>0.9426094171262877</v>
       </c>
       <c r="F23">
-        <v>1.035095780677984</v>
+        <v>0.939523646514657</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03343842904051</v>
+        <v>1.01822905010823</v>
       </c>
       <c r="J23">
-        <v>1.033752685564648</v>
+        <v>0.9624408125996126</v>
       </c>
       <c r="K23">
-        <v>1.035466293382779</v>
+        <v>0.9792405311321078</v>
       </c>
       <c r="L23">
-        <v>1.030493153806663</v>
+        <v>0.9590689015641505</v>
       </c>
       <c r="M23">
-        <v>1.038740040867493</v>
+        <v>0.9560532501849172</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>1.029645975298942</v>
+        <v>0.9475820738295763</v>
       </c>
       <c r="D24">
-        <v>1.033873162877171</v>
+        <v>0.9776079790900667</v>
       </c>
       <c r="E24">
-        <v>1.029155992964969</v>
+        <v>0.9586738117554292</v>
       </c>
       <c r="F24">
-        <v>1.037867148187955</v>
+        <v>0.958041401824099</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034248862825131</v>
+        <v>1.025369719192969</v>
       </c>
       <c r="J24">
-        <v>1.035878567775574</v>
+        <v>0.9772587087971567</v>
       </c>
       <c r="K24">
-        <v>1.037250663072848</v>
+        <v>0.9920400757323903</v>
       </c>
       <c r="L24">
-        <v>1.032550112735215</v>
+        <v>0.9734677274857992</v>
       </c>
       <c r="M24">
-        <v>1.04123070680629</v>
+        <v>0.9728477264859445</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03271292461277</v>
+        <v>0.9671081209861589</v>
       </c>
       <c r="D25">
-        <v>1.036250332009258</v>
+        <v>0.9927434836090675</v>
       </c>
       <c r="E25">
-        <v>1.031849652369432</v>
+        <v>0.9755637100479809</v>
       </c>
       <c r="F25">
-        <v>1.041064963985422</v>
+        <v>0.9775344614441325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035173479614525</v>
+        <v>1.032800129248395</v>
       </c>
       <c r="J25">
-        <v>1.038324379774167</v>
+        <v>0.9927954975335902</v>
       </c>
       <c r="K25">
-        <v>1.039301446699599</v>
+        <v>1.005455501902973</v>
       </c>
       <c r="L25">
-        <v>1.03491464844589</v>
+        <v>0.9885535951274054</v>
       </c>
       <c r="M25">
-        <v>1.044101038395631</v>
+        <v>0.9904918335802033</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
